--- a/biology/Zoologie/Boophis_elenae/Boophis_elenae.xlsx
+++ b/biology/Zoologie/Boophis_elenae/Boophis_elenae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis elenae est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis elenae est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 900 et 1 000 m d'altitude dans le centre-est de l'île[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 900 et 1 000 m d'altitude dans le centre-est de l'île,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis elenae mesure de 40 à 46 mm voire plus pour certains individus (maximum observé 62 mm pour une femelle). Son dos est vert. Son ventre est blanchâtre avec des reflets bleutés. Les mâles présentent une paire de sac vocaux et un coussinet nuptial sur le premier doigt[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis elenae mesure de 40 à 46 mm voire plus pour certains individus (maximum observé 62 mm pour une femelle). Son dos est vert. Son ventre est blanchâtre avec des reflets bleutés. Les mâles présentent une paire de sac vocaux et un coussinet nuptial sur le premier doigt.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Elena Gavetti[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Elena Gavetti.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Andreone, 1993 : Two new treefrogs of the genus Boophis (Anura: Rhacophoridae) from central-eastern Madagascar. Bollettino - Museo Regionale di Scienze Naturali, vol. 11, p. 289-313.</t>
         </is>
